--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:21:11+00:00</t>
+    <t>2024-10-10T16:26:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:26:55+00:00</t>
+    <t>2024-10-10T16:40:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-10T16:40:38+00:00</t>
+    <t>2024-10-11T14:20:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-11T14:20:05+00:00</t>
+    <t>2024-10-31T12:52:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T12:52:49+00:00</t>
+    <t>2024-11-05T10:01:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-05T10:01:35+00:00</t>
+    <t>2024-11-08T16:53:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T16:53:16+00:00</t>
+    <t>2024-11-08T17:02:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:02:00+00:00</t>
+    <t>2024-11-08T17:33:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-08T17:33:21+00:00</t>
+    <t>2024-11-13T21:35:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0-snapshot-4</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-13T21:35:06+00:00</t>
+    <t>2024-11-14T08:22:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-14T08:22:05+00:00</t>
+    <t>2024-11-18T16:15:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-18T16:15:50+00:00</t>
+    <t>2024-12-02T14:05:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2229" uniqueCount="435">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-02T14:05:36+00:00</t>
+    <t>2025-01-15T07:47:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -745,19 +745,19 @@
     <t>Nom issu de l’état-civil.</t>
   </si>
   <si>
-    <t>A human's name with the ability to identify parts and usage.</t>
-  </si>
-  <si>
-    <t>Names may be changed, or repudiated, or people may have different names in different contexts. Names may be divided into parts of different type that have variable significance depending on context, though the division into parts does not always matter. With personal names, the different parts might or might not be imbued with some implicit meaning; various cultures associate different importance with the name parts and the degree to which systems must care about name parts around the world varies widely.</t>
+    <t>A name associated with the person.</t>
+  </si>
+  <si>
+    <t>Person may have multiple names with different uses or applicable periods.</t>
   </si>
   <si>
     <t>Need to be able to track the person by multiple names. Examples are your official name and a partner name.</t>
   </si>
   <si>
-    <t>EN (actually, PN)</t>
-  </si>
-  <si>
-    <t>XPN</t>
+    <t>./name</t>
+  </si>
+  <si>
+    <t>PID-5, PID-9</t>
   </si>
   <si>
     <t>Person.name.id</t>
@@ -978,7 +978,7 @@
     <t>Différentes instances pour les téléphones, la télécopie et l’adresse mail.</t>
   </si>
   <si>
-    <t>Details for all kinds of technology mediated contact points for a person or organization, including telephone, email, etc.</t>
+    <t>A contact detail for the person, e.g. a telephone number or an email address.</t>
   </si>
   <si>
     <t>Person may have multiple ways to be contacted with different uses or applicable periods.  May need to have options for contacting the person urgently and also to help with identification.</t>
@@ -987,14 +987,10 @@
     <t>People have (primary) ways to contact them in some way such as phone, email.</t>
   </si>
   <si>
-    <t>cpt-2:A system is required if a value is provided. {value.empty() or system.exists()}
-ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}</t>
-  </si>
-  <si>
-    <t>TEL</t>
-  </si>
-  <si>
-    <t>XTN</t>
+    <t>./telecom</t>
+  </si>
+  <si>
+    <t>PID-13, PID-14</t>
   </si>
   <si>
     <t>Person.telecom.id</t>
@@ -4390,7 +4386,7 @@
         <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
         <v>231</v>
@@ -4463,7 +4459,7 @@
         <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>100</v>
@@ -5642,7 +5638,7 @@
         <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="K35" t="s" s="2">
         <v>307</v>
@@ -5715,30 +5711,30 @@
         <v>79</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="AK35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AM35" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>314</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5847,10 +5843,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5961,13 +5957,13 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="C38" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="B38" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="C38" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>77</v>
@@ -5989,13 +5985,13 @@
         <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6075,10 +6071,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6104,10 +6100,10 @@
         <v>169</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>324</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6137,28 +6133,28 @@
         <v>250</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="Z39" t="s" s="2">
+      <c r="AA39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF39" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6167,7 +6163,7 @@
         <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>100</v>
@@ -6176,21 +6172,21 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN39" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>330</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6216,16 +6212,16 @@
         <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>77</v>
@@ -6274,7 +6270,7 @@
         <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6292,21 +6288,21 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>338</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6332,16 +6328,16 @@
         <v>169</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>343</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>77</v>
@@ -6369,28 +6365,28 @@
         <v>250</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="Z41" t="s" s="2">
+      <c r="AA41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF41" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6414,15 +6410,15 @@
         <v>77</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6445,16 +6441,16 @@
         <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>351</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>352</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6504,7 +6500,7 @@
         <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6533,10 +6529,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6562,10 +6558,10 @@
         <v>299</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>355</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>356</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6616,7 +6612,7 @@
         <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6645,10 +6641,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6674,16 +6670,16 @@
         <v>169</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="N44" t="s" s="2">
+      <c r="O44" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>77</v>
@@ -6711,11 +6707,11 @@
         <v>250</v>
       </c>
       <c r="Y44" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Z44" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="Z44" t="s" s="2">
-        <v>364</v>
-      </c>
       <c r="AA44" t="s" s="2">
         <v>77</v>
       </c>
@@ -6732,7 +6728,7 @@
         <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6747,24 +6743,24 @@
         <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>367</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6787,19 +6783,19 @@
         <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>77</v>
@@ -6848,7 +6844,7 @@
         <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6863,24 +6859,24 @@
         <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN45" t="s" s="2">
         <v>375</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>376</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6903,19 +6899,19 @@
         <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>379</v>
       </c>
-      <c r="M46" t="s" s="2">
+      <c r="N46" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="N46" t="s" s="2">
+      <c r="O46" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>77</v>
@@ -6964,7 +6960,7 @@
         <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>78</v>
@@ -6982,21 +6978,21 @@
         <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN46" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>384</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7019,13 +7015,13 @@
         <v>77</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>387</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>388</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7076,7 +7072,7 @@
         <v>77</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>78</v>
@@ -7094,21 +7090,21 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN47" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>390</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7131,17 +7127,17 @@
         <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="M48" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -7190,7 +7186,7 @@
         <v>77</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>78</v>
@@ -7208,7 +7204,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7219,10 +7215,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7245,17 +7241,17 @@
         <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>77</v>
@@ -7304,7 +7300,7 @@
         <v>77</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>78</v>
@@ -7322,10 +7318,10 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7333,10 +7329,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7359,13 +7355,13 @@
         <v>77</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="M50" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7404,7 +7400,7 @@
         <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AC50" s="2"/>
       <c r="AD50" t="s" s="2">
@@ -7414,7 +7410,7 @@
         <v>115</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7432,7 +7428,7 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>77</v>
@@ -7443,10 +7439,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7555,10 +7551,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7669,14 +7665,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7698,10 +7694,10 @@
         <v>109</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N53" t="s" s="2">
         <v>112</v>
@@ -7756,7 +7752,7 @@
         <v>77</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7785,10 +7781,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7811,13 +7807,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>418</v>
       </c>
-      <c r="L54" t="s" s="2">
+      <c r="M54" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -7868,7 +7864,7 @@
         <v>77</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>88</v>
@@ -7886,7 +7882,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -7897,10 +7893,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7926,10 +7922,10 @@
         <v>169</v>
       </c>
       <c r="L55" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M55" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -7959,11 +7955,11 @@
         <v>250</v>
       </c>
       <c r="Y55" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z55" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Z55" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
       </c>
@@ -7980,7 +7976,7 @@
         <v>77</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -7998,7 +7994,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8009,13 +8005,13 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="C56" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="C56" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
@@ -8037,13 +8033,13 @@
         <v>77</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8094,7 +8090,7 @@
         <v>77</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8112,7 +8108,7 @@
         <v>77</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>77</v>
@@ -8123,10 +8119,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8235,10 +8231,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8349,14 +8345,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8378,10 +8374,10 @@
         <v>109</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>415</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>112</v>
@@ -8436,7 +8432,7 @@
         <v>77</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8465,10 +8461,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8491,13 +8487,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>420</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8548,7 +8544,7 @@
         <v>77</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>88</v>
@@ -8566,7 +8562,7 @@
         <v>77</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
@@ -8577,10 +8573,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8606,10 +8602,10 @@
         <v>169</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8639,11 +8635,11 @@
         <v>250</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>426</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>77</v>
       </c>
@@ -8660,7 +8656,7 @@
         <v>77</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8678,7 +8674,7 @@
         <v>77</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-15T07:47:50+00:00</t>
+    <t>2025-01-27T16:40:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/main/ig/StructureDefinition-as-person.xlsx
+++ b/main/ig/StructureDefinition-as-person.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-27T16:40:24+00:00</t>
+    <t>2025-01-27T17:01:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
